--- a/Data/BRUTOS-2025/07-2025/sh-nfs_infosoft.xlsx
+++ b/Data/BRUTOS-2025/07-2025/sh-nfs_infosoft.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="222">
   <si>
     <t>Dt. emissão</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Cliente</t>
   </si>
   <si>
+    <t>Cd Vendedor</t>
+  </si>
+  <si>
     <t>Vl Total Nota</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>T&amp;G LIVROS E BRINQUEDOS LTDA</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>7348</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     <t>LIG BRINK LIVROS E BRINQUEDOS LTDA</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>7349</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>F R LUCENA COMERCIO VAREJISTA LTDA</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>7350</t>
   </si>
   <si>
@@ -242,6 +254,9 @@
     <t>E . M . SOUSA EIRELI</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>7366</t>
   </si>
   <si>
@@ -254,6 +269,9 @@
     <t>COMERCIO DE ARTIGOS P/  ALIMENTOS MARLEI LTDA</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>7367</t>
   </si>
   <si>
@@ -272,6 +290,9 @@
     <t>MFC EMBALAGENS E FESTA LTDA</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>7370</t>
   </si>
   <si>
@@ -302,6 +323,9 @@
     <t>PEDRO MENINO LEITE</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>7373</t>
   </si>
   <si>
@@ -326,6 +350,9 @@
     <t>50.281.752 SAMUEL JARDEL DA SILVA</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>7375</t>
   </si>
   <si>
@@ -338,6 +365,9 @@
     <t>COMFESTA COMERCIAL LTDA</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>7376</t>
   </si>
   <si>
@@ -350,6 +380,9 @@
     <t>DIVANI KRETSCHMER LTDA</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>7377</t>
   </si>
   <si>
@@ -386,6 +419,9 @@
     <t>UNIVERSO DAS FESTAS LTDA</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>7381</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
   </si>
   <si>
     <t>R.NONNENMACHER ARTIGOS DE FESTAS LTDA</t>
+  </si>
+  <si>
+    <t>83</t>
   </si>
   <si>
     <t>7388</t>
@@ -1861,29 +1900,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="11.2380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.6190476190476" customWidth="1"/>
-    <col min="5" max="5" width="27.2380952380952" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="24.5714285714286" customWidth="1"/>
-    <col min="8" max="9" width="16.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="11.2380952380952" customWidth="1"/>
-    <col min="11" max="11" width="15.6190476190476" customWidth="1"/>
-    <col min="12" max="12" width="27.2380952380952" customWidth="1"/>
-    <col min="13" max="13" width="13.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="24.5714285714286" customWidth="1"/>
+    <col min="1" max="2" width="14.4761904761905" customWidth="1"/>
+    <col min="3" max="3" width="9.90476190476191" customWidth="1"/>
+    <col min="4" max="4" width="13.5238095238095" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="21.7142857142857" customWidth="1"/>
+    <col min="9" max="10" width="14.4761904761905" customWidth="1"/>
+    <col min="11" max="11" width="9.90476190476191" customWidth="1"/>
+    <col min="12" max="12" width="13.5238095238095" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="21.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,11 +1943,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>45839</v>
       </c>
@@ -1914,22 +1958,25 @@
         <v>45839</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
         <v>3180.81</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>45840</v>
       </c>
@@ -1937,22 +1984,25 @@
         <v>45840</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
         <v>2383.17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>45840</v>
       </c>
@@ -1960,22 +2010,25 @@
         <v>45840</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5">
         <v>12767.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>45840</v>
       </c>
@@ -1983,22 +2036,25 @@
         <v>45840</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
         <v>4895.79</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>45842</v>
       </c>
@@ -2006,22 +2062,25 @@
         <v>45855</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5">
         <v>578.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>45842</v>
       </c>
@@ -2029,22 +2088,25 @@
         <v>45842</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4">
+        <v>109</v>
+      </c>
+      <c r="H7" s="5">
         <v>1635.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>45842</v>
       </c>
@@ -2052,22 +2114,25 @@
         <v>45842</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
         <v>698.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>45842</v>
       </c>
@@ -2075,22 +2140,25 @@
         <v>45855</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5">
         <v>1575.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>45842</v>
       </c>
@@ -2098,22 +2166,25 @@
         <v>45855</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5">
         <v>2564.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>45842</v>
       </c>
@@ -2121,22 +2192,25 @@
         <v>45855</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="5">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
         <v>474.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>45842</v>
       </c>
@@ -2144,22 +2218,25 @@
         <v>45855</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5">
         <v>902</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>45842</v>
       </c>
@@ -2167,22 +2244,25 @@
         <v>45855</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="5">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
         <v>2362.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>45842</v>
       </c>
@@ -2190,22 +2270,25 @@
         <v>45855</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="5">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5">
         <v>1007.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>45842</v>
       </c>
@@ -2213,22 +2296,25 @@
         <v>45855</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="5">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5">
         <v>4223.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>45842</v>
       </c>
@@ -2236,22 +2322,25 @@
         <v>45855</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="5">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5">
         <v>3807.1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>45842</v>
       </c>
@@ -2259,22 +2348,25 @@
         <v>45855</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="5">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5">
         <v>2273.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>45842</v>
       </c>
@@ -2282,22 +2374,25 @@
         <v>45855</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="5">
+        <v>70</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="5">
         <v>4252.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>45842</v>
       </c>
@@ -2305,22 +2400,25 @@
         <v>45856</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="5">
+        <v>74</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="5">
         <v>11922.3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>45846</v>
       </c>
@@ -2328,22 +2426,25 @@
         <v>45852</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="5">
+        <v>79</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="5">
         <v>3062.7</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>45846</v>
       </c>
@@ -2351,22 +2452,25 @@
         <v>45853</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="5">
+        <v>79</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="5">
         <v>4189.9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>45846</v>
       </c>
@@ -2374,22 +2478,25 @@
         <v>45860</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="5">
+        <v>86</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="5">
         <v>5141</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>45846</v>
       </c>
@@ -2397,22 +2504,25 @@
         <v>45859</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="5">
+        <v>91</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="5">
         <v>7292.6</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>45846</v>
       </c>
@@ -2420,22 +2530,25 @@
         <v>45859</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="5">
+        <v>79</v>
+      </c>
+      <c r="G24" s="4">
+        <v>109</v>
+      </c>
+      <c r="H24" s="5">
         <v>1606.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>45846</v>
       </c>
@@ -2443,22 +2556,25 @@
         <v>45860</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="5">
+        <v>97</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="5">
         <v>7082.33</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>45846</v>
       </c>
@@ -2466,22 +2582,25 @@
         <v>45860</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="5">
+        <v>102</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="5">
         <v>7396.49</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>45849</v>
       </c>
@@ -2489,22 +2608,25 @@
         <v>45867</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="5">
+        <v>106</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="5">
         <v>8213.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>45849</v>
       </c>
@@ -2512,22 +2634,25 @@
         <v>45857</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="5">
+        <v>111</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="5">
         <v>1524.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>45849</v>
       </c>
@@ -2535,22 +2660,25 @@
         <v>45868</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="5">
+        <v>116</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="5">
         <v>11274.06</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>45849</v>
       </c>
@@ -2558,22 +2686,25 @@
         <v>45863</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="5">
+        <v>121</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="5">
         <v>19013.54</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>45852</v>
       </c>
@@ -2581,22 +2712,25 @@
         <v>45852</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="5">
+        <v>125</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5">
         <v>824.45</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>45853</v>
       </c>
@@ -2604,22 +2738,25 @@
         <v>45867</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="5">
+        <v>129</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="5">
         <v>1672.55</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>45853</v>
       </c>
@@ -2627,22 +2764,25 @@
         <v>45867</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="5">
+        <v>134</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="5">
         <v>3876.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>45853</v>
       </c>
@@ -2650,22 +2790,25 @@
         <v>45868</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="5">
+        <v>138</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="5">
         <v>10224.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>45853</v>
       </c>
@@ -2673,22 +2816,25 @@
         <v>45867</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>2229.4</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="3">
         <v>45853</v>
       </c>
@@ -2696,22 +2842,25 @@
         <v>45867</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="5">
+        <v>146</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="5">
         <v>2936.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
         <v>45856</v>
       </c>
@@ -2719,22 +2868,25 @@
         <v>45867</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="5">
+        <v>150</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="5">
         <v>1506.6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
         <v>45856</v>
       </c>
@@ -2742,22 +2894,25 @@
         <v>45867</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="5">
+        <v>154</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="5">
         <v>2281.7</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>45856</v>
       </c>
@@ -2765,22 +2920,25 @@
         <v>45867</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="5">
+        <v>158</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="5">
         <v>1575.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
         <v>45856</v>
       </c>
@@ -2788,22 +2946,25 @@
         <v>45867</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="5">
+        <v>163</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="5">
         <v>2295.36</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
         <v>45856</v>
       </c>
@@ -2811,22 +2972,25 @@
         <v>45867</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="5">
+        <v>167</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="5">
         <v>27344.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
         <v>45856</v>
       </c>
@@ -2834,22 +2998,25 @@
         <v>45867</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <v>5251.56</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
         <v>45863</v>
       </c>
@@ -2857,22 +3024,25 @@
         <v>45877</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="5">
+        <v>173</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="5">
         <v>1934.25</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="3">
         <v>45863</v>
       </c>
@@ -2880,22 +3050,25 @@
         <v>45877</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="5">
+        <v>177</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="5">
         <v>1819.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
         <v>45863</v>
       </c>
@@ -2903,22 +3076,25 @@
         <v>45877</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" s="5">
+        <v>181</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="5">
         <v>7638.21</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
         <v>45863</v>
       </c>
@@ -2926,22 +3102,25 @@
         <v>45877</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="5">
+        <v>181</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="5">
         <v>7265.79</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
         <v>45863</v>
       </c>
@@ -2949,22 +3128,25 @@
         <v>45879</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="5">
+        <v>187</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="5">
         <v>11179.65</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="3">
         <v>45868</v>
       </c>
@@ -2972,22 +3154,25 @@
         <v>45868</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G48" s="5">
+        <v>191</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="5">
         <v>30014.31</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="3">
         <v>45868</v>
       </c>
@@ -2995,22 +3180,25 @@
         <v>45884</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G49" s="5">
+        <v>191</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="5">
         <v>2239.2</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="3">
         <v>45868</v>
       </c>
@@ -3018,22 +3206,25 @@
         <v>45884</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" s="5">
+        <v>197</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="5">
         <v>9122.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="3">
         <v>45868</v>
       </c>
@@ -3041,22 +3232,25 @@
         <v>45884</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G51" s="5">
+        <v>201</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="5">
         <v>4665.3</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="3">
         <v>45868</v>
       </c>
@@ -3064,22 +3258,25 @@
         <v>45884</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G52" s="5">
+        <v>205</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="5">
         <v>1743.4</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="3">
         <v>45868</v>
       </c>
@@ -3087,22 +3284,25 @@
         <v>45884</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G53" s="5">
+        <v>209</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="5">
         <v>11880.06</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="3">
         <v>45868</v>
       </c>
@@ -3110,22 +3310,25 @@
         <v>45884</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="5">
+        <v>213</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="5">
         <v>5062.6</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="3">
         <v>45868</v>
       </c>
@@ -3133,22 +3336,25 @@
         <v>45884</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G55" s="5">
+        <v>217</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="5">
         <v>6929.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="3">
         <v>45868</v>
       </c>
@@ -3156,18 +3362,21 @@
         <v>45884</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56" s="5">
+        <v>221</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="5">
         <v>5044.2</v>
       </c>
     </row>

--- a/Data/BRUTOS-2025/07-2025/sh-nfs_infosoft.xlsx
+++ b/Data/BRUTOS-2025/07-2025/sh-nfs_infosoft.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="218">
   <si>
     <t>Dt. emissão</t>
   </si>
@@ -368,31 +368,19 @@
     <t>98</t>
   </si>
   <si>
-    <t>7376</t>
-  </si>
-  <si>
-    <t>5608</t>
-  </si>
-  <si>
-    <t>46.253.063/0001-50</t>
-  </si>
-  <si>
-    <t>DIVANI KRETSCHMER LTDA</t>
+    <t>7377</t>
+  </si>
+  <si>
+    <t>5649</t>
+  </si>
+  <si>
+    <t>45.259.281/0001-30</t>
+  </si>
+  <si>
+    <t>SILVIA DAHIANA FRANCA ACOSTA</t>
   </si>
   <si>
     <t>109</t>
-  </si>
-  <si>
-    <t>7377</t>
-  </si>
-  <si>
-    <t>5649</t>
-  </si>
-  <si>
-    <t>45.259.281/0001-30</t>
-  </si>
-  <si>
-    <t>SILVIA DAHIANA FRANCA ACOSTA</t>
   </si>
   <si>
     <t>7379</t>
@@ -712,7 +700,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -720,7 +707,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1900,10 +1886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2100,7 +2086,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="4">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5">
         <v>1635.8</v>
@@ -2657,7 +2643,7 @@
         <v>45849</v>
       </c>
       <c r="B29" s="3">
-        <v>45868</v>
+        <v>45863</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>113</v>
@@ -2675,15 +2661,15 @@
         <v>117</v>
       </c>
       <c r="H29" s="5">
-        <v>11274.06</v>
+        <v>19013.54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B30" s="3">
-        <v>45863</v>
+        <v>45852</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>118</v>
@@ -2698,18 +2684,18 @@
         <v>121</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5">
-        <v>19013.54</v>
+        <v>824.45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B31" s="3">
-        <v>45852</v>
+        <v>45867</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>122</v>
@@ -2724,10 +2710,10 @@
         <v>125</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="H31" s="5">
-        <v>824.45</v>
+        <v>1672.55</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2738,22 +2724,22 @@
         <v>45867</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="H32" s="5">
-        <v>1672.55</v>
+        <v>3876.25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2761,7 +2747,7 @@
         <v>45853</v>
       </c>
       <c r="B33" s="3">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>131</v>
@@ -2776,10 +2762,10 @@
         <v>134</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="H33" s="5">
-        <v>3876.25</v>
+        <v>10224.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2787,7 +2773,7 @@
         <v>45853</v>
       </c>
       <c r="B34" s="3">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>135</v>
@@ -2802,10 +2788,10 @@
         <v>138</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="H34" s="5">
-        <v>10224.5</v>
+        <v>2229.4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2828,15 +2814,15 @@
         <v>142</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="H35" s="5">
-        <v>2229.4</v>
+        <v>2936.5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B36" s="3">
         <v>45867</v>
@@ -2854,10 +2840,10 @@
         <v>146</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H36" s="5">
-        <v>2936.5</v>
+        <v>1506.6</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2880,10 +2866,10 @@
         <v>150</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H37" s="5">
-        <v>1506.6</v>
+        <v>2281.7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2906,10 +2892,10 @@
         <v>154</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H38" s="5">
-        <v>2281.7</v>
+        <v>1575.8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2920,22 +2906,22 @@
         <v>45867</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="G39" s="4">
+        <v>109</v>
+      </c>
       <c r="H39" s="5">
-        <v>1575.8</v>
+        <v>2295.36</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2958,10 +2944,10 @@
         <v>163</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H40" s="5">
-        <v>2295.36</v>
+        <v>27344.5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2978,42 +2964,42 @@
         <v>165</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H41" s="5">
-        <v>27344.5</v>
+        <v>5251.56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="B42" s="3">
-        <v>45867</v>
+        <v>45877</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="G42" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="H42" s="5">
-        <v>5251.56</v>
+        <v>1934.25</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3039,7 +3025,7 @@
         <v>107</v>
       </c>
       <c r="H43" s="5">
-        <v>1934.25</v>
+        <v>1819.8</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3062,10 +3048,10 @@
         <v>177</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="H44" s="5">
-        <v>1819.8</v>
+        <v>7638.21</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3082,16 +3068,16 @@
         <v>179</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H45" s="5">
-        <v>7638.21</v>
+        <v>7265.79</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3099,33 +3085,33 @@
         <v>45863</v>
       </c>
       <c r="B46" s="3">
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="G46" s="4" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H46" s="5">
-        <v>7265.79</v>
+        <v>11179.65</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3">
-        <v>45863</v>
+        <v>45868</v>
       </c>
       <c r="B47" s="3">
-        <v>45879</v>
+        <v>45868</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>184</v>
@@ -3140,10 +3126,10 @@
         <v>187</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H47" s="5">
-        <v>11179.65</v>
+        <v>30014.31</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3151,7 +3137,7 @@
         <v>45868</v>
       </c>
       <c r="B48" s="3">
-        <v>45868</v>
+        <v>45884</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>188</v>
@@ -3160,16 +3146,16 @@
         <v>189</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H48" s="5">
-        <v>30014.31</v>
+        <v>2239.2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3180,22 +3166,22 @@
         <v>45884</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="G49" s="4" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H49" s="5">
-        <v>2239.2</v>
+        <v>9122.2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3218,10 +3204,10 @@
         <v>197</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="H50" s="5">
-        <v>9122.2</v>
+        <v>4665.3</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3244,10 +3230,10 @@
         <v>201</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H51" s="5">
-        <v>4665.3</v>
+        <v>1743.4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3270,10 +3256,10 @@
         <v>205</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H52" s="5">
-        <v>1743.4</v>
+        <v>11880.06</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3296,10 +3282,10 @@
         <v>209</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H53" s="5">
-        <v>11880.06</v>
+        <v>5062.6</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3322,10 +3308,10 @@
         <v>213</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="H54" s="5">
-        <v>5062.6</v>
+        <v>6929.8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3348,35 +3334,9 @@
         <v>217</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H55" s="5">
-        <v>6929.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3">
-        <v>45868</v>
-      </c>
-      <c r="B56" s="3">
-        <v>45884</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="5">
         <v>5044.2</v>
       </c>
     </row>
